--- a/day2.xlsx
+++ b/day2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joshbeehler/Documents/gabba/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F4BF17A-5290-0A4D-B1B2-C7203539B33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC204E39-C9DC-DA4A-864D-454CC0A909A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15060" xr2:uid="{E995059F-77BD-DB45-AB2C-FC26B84CB45A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E995059F-77BD-DB45-AB2C-FC26B84CB45A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -504,8 +504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADFBA5C-3F7B-B54A-81E9-5B6196C0BD4A}">
   <dimension ref="A1:F331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
-      <selection activeCell="E334" sqref="E334"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -537,6 +537,9 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
@@ -548,6 +551,9 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
@@ -559,6 +565,9 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>7</v>
       </c>
@@ -570,6 +579,9 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>7</v>
       </c>
@@ -581,6 +593,9 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
@@ -592,6 +607,9 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
@@ -603,6 +621,9 @@
       <c r="B8" t="s">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>7</v>
       </c>
@@ -614,6 +635,9 @@
       <c r="B9" t="s">
         <v>6</v>
       </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
       <c r="F9" s="2" t="s">
         <v>7</v>
       </c>
@@ -625,6 +649,9 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
       <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
@@ -636,6 +663,9 @@
       <c r="B11" t="s">
         <v>6</v>
       </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>7</v>
       </c>
@@ -647,6 +677,9 @@
       <c r="B12" t="s">
         <v>6</v>
       </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
       <c r="F12" s="2" t="s">
         <v>7</v>
       </c>
@@ -658,6 +691,9 @@
       <c r="B13" t="s">
         <v>6</v>
       </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
       <c r="F13" s="2" t="s">
         <v>7</v>
       </c>
@@ -669,6 +705,9 @@
       <c r="B14" t="s">
         <v>6</v>
       </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
       <c r="F14" s="2" t="s">
         <v>7</v>
       </c>
@@ -680,6 +719,9 @@
       <c r="B15" t="s">
         <v>6</v>
       </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
       <c r="F15" s="2" t="s">
         <v>7</v>
       </c>
@@ -691,6 +733,9 @@
       <c r="B16" t="s">
         <v>6</v>
       </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
       <c r="F16" s="2" t="s">
         <v>7</v>
       </c>
@@ -702,6 +747,9 @@
       <c r="B17" t="s">
         <v>6</v>
       </c>
+      <c r="C17">
+        <v>10</v>
+      </c>
       <c r="F17" s="2" t="s">
         <v>7</v>
       </c>
@@ -713,6 +761,9 @@
       <c r="B18" t="s">
         <v>6</v>
       </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
       <c r="F18" s="2" t="s">
         <v>7</v>
       </c>
@@ -724,6 +775,9 @@
       <c r="B19" t="s">
         <v>6</v>
       </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
       <c r="F19" s="2" t="s">
         <v>7</v>
       </c>
@@ -735,6 +789,9 @@
       <c r="B20" t="s">
         <v>6</v>
       </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
       <c r="F20" s="2" t="s">
         <v>7</v>
       </c>
@@ -746,6 +803,9 @@
       <c r="B21" t="s">
         <v>6</v>
       </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
       <c r="F21" s="2" t="s">
         <v>7</v>
       </c>
@@ -757,6 +817,9 @@
       <c r="B22" t="s">
         <v>6</v>
       </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>7</v>
       </c>
@@ -768,6 +831,9 @@
       <c r="B23" t="s">
         <v>6</v>
       </c>
+      <c r="C23">
+        <v>10</v>
+      </c>
       <c r="F23" s="2" t="s">
         <v>7</v>
       </c>
@@ -779,6 +845,9 @@
       <c r="B24" t="s">
         <v>6</v>
       </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
       <c r="F24" s="2" t="s">
         <v>7</v>
       </c>
@@ -790,6 +859,9 @@
       <c r="B25" t="s">
         <v>6</v>
       </c>
+      <c r="C25">
+        <v>10</v>
+      </c>
       <c r="F25" s="2" t="s">
         <v>7</v>
       </c>
@@ -801,6 +873,9 @@
       <c r="B26" t="s">
         <v>6</v>
       </c>
+      <c r="C26">
+        <v>10</v>
+      </c>
       <c r="F26" s="2" t="s">
         <v>7</v>
       </c>
@@ -812,6 +887,9 @@
       <c r="B27" t="s">
         <v>6</v>
       </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
       <c r="F27" s="2" t="s">
         <v>7</v>
       </c>
@@ -823,6 +901,9 @@
       <c r="B28" t="s">
         <v>6</v>
       </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
       <c r="F28" s="2" t="s">
         <v>7</v>
       </c>
@@ -834,6 +915,9 @@
       <c r="B29" t="s">
         <v>6</v>
       </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
       <c r="F29" s="2" t="s">
         <v>7</v>
       </c>
@@ -845,6 +929,9 @@
       <c r="B30" t="s">
         <v>6</v>
       </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
       <c r="F30" s="2" t="s">
         <v>7</v>
       </c>
@@ -855,6 +942,9 @@
       </c>
       <c r="B31" t="s">
         <v>6</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>7</v>
